--- a/data-raw/SusitnaEG Hm.xlsx
+++ b/data-raw/SusitnaEG Hm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F0F309-E29A-450E-8330-0D9BED60147C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B34DD-5270-4044-9CB5-8D7137318E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marine" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Stock-specific harvest</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>added 10/23/2023 (10/3/2023 teams messaage form Nick). Updated 2019-2022 subsitence SWAGs to point estimates, personal comm from Dave Koster. 2023 still a SWAG.</t>
+  </si>
+  <si>
+    <t>added 2/5/2025 (1/10/2024 teams message from Nick). Updated 2022 and 2023 subsitence SWAG to point estimates, added 2024 personal comm from Dave Koster.</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +822,10 @@
   <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH50" sqref="AH50"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="X66" sqref="X66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,18 +870,18 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
       <c r="K4" s="18" t="s">
         <v>4</v>
       </c>
@@ -946,17 +952,17 @@
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="K5" s="20">
         <v>1977</v>
       </c>
@@ -2128,18 +2134,18 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
       <c r="K17" s="20">
         <v>1989</v>
       </c>
@@ -2227,17 +2233,17 @@
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="62"/>
       <c r="K18" s="20">
         <v>1990</v>
       </c>
@@ -3584,18 +3590,18 @@
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
       <c r="K31" s="20">
         <v>2003</v>
       </c>
@@ -3684,17 +3690,17 @@
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="62"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="61"/>
       <c r="K32" s="20">
         <v>2004</v>
       </c>
@@ -4943,18 +4949,18 @@
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
       <c r="K44" s="50">
         <v>2016</v>
       </c>
@@ -5041,17 +5047,17 @@
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="62"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="5"/>
       <c r="F45" s="3"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="62" t="s">
+      <c r="H45" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="62"/>
+      <c r="I45" s="61"/>
       <c r="K45" s="50">
         <v>2017</v>
       </c>
@@ -5085,7 +5091,7 @@
         <v>1304</v>
       </c>
       <c r="U45" s="49">
-        <f t="shared" ref="U45:U51" si="18">T45*0.05</f>
+        <f t="shared" ref="U45:U52" si="18">T45*0.05</f>
         <v>65.2</v>
       </c>
       <c r="V45" s="51">
@@ -5172,7 +5178,7 @@
         <v>0.51656657430391151</v>
       </c>
       <c r="N46" s="52">
-        <f t="shared" ref="N46:N51" si="19">_xlfn.STDEV.S($M$44:$M$45)</f>
+        <f t="shared" ref="N46:N52" si="19">_xlfn.STDEV.S($M$44:$M$45)</f>
         <v>5.2164797144424936E-2</v>
       </c>
       <c r="O46" s="22">
@@ -5198,11 +5204,11 @@
         <v>65.400000000000006</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" ref="V46:V51" si="21">AVERAGE($V$44:$V$45)</f>
+        <f t="shared" ref="V46:V52" si="21">AVERAGE($V$44:$V$45)</f>
         <v>0.61074344530524804</v>
       </c>
       <c r="W46" s="52">
-        <f t="shared" ref="W46:W51" si="22">_xlfn.STDEV.S($V$44:$V$45)</f>
+        <f t="shared" ref="W46:W52" si="22">_xlfn.STDEV.S($V$44:$V$45)</f>
         <v>7.3659157462274485E-2</v>
       </c>
       <c r="X46" s="27">
@@ -5277,7 +5283,7 @@
         <v>197</v>
       </c>
       <c r="M47" s="59">
-        <f t="shared" ref="M47:M51" si="28">AVERAGE($M$44:$M$45)</f>
+        <f t="shared" ref="M47:M52" si="28">AVERAGE($M$44:$M$45)</f>
         <v>0.51656657430391151</v>
       </c>
       <c r="N47" s="52">
@@ -5631,11 +5637,11 @@
         <v>2022</v>
       </c>
       <c r="T50" s="44">
-        <v>954</v>
+        <v>1022</v>
       </c>
       <c r="U50" s="44">
         <f t="shared" si="18"/>
-        <v>47.7</v>
+        <v>51.1</v>
       </c>
       <c r="V50" s="21">
         <f t="shared" si="21"/>
@@ -5647,11 +5653,11 @@
       </c>
       <c r="X50" s="27">
         <f t="shared" ref="X50" si="40">T50*V50</f>
-        <v>582.64924682120659</v>
+        <v>624.17980110196345</v>
       </c>
       <c r="Y50" s="22">
         <f t="shared" ref="Y50" si="41">SQRT(T50^2*W50^2+V50^2*U50^2-U50^2*W50^2)</f>
-        <v>75.989116384617276</v>
+        <v>81.405531388971539</v>
       </c>
       <c r="Z50" s="15">
         <f t="shared" ref="Z50" si="42">Y50/X50</f>
@@ -5662,15 +5668,15 @@
       </c>
       <c r="AC50" s="22">
         <f t="shared" si="24"/>
-        <v>1266.5833911995855</v>
+        <v>1308.1139454803424</v>
       </c>
       <c r="AD50" s="17">
         <f t="shared" si="25"/>
-        <v>102.6863408933781</v>
+        <v>106.75672970767218</v>
       </c>
       <c r="AE50" s="15">
         <f>AD50/AC50</f>
-        <v>8.1073493941937386E-2</v>
+        <v>8.1611185383755586E-2</v>
       </c>
       <c r="AF50" s="52">
         <f>AVERAGE($AF$42:$AF$45)</f>
@@ -5678,7 +5684,7 @@
       </c>
       <c r="AG50" s="14">
         <f>AC50*(1-AF50)</f>
-        <v>1074.4901193649171</v>
+        <v>1109.7220437186368</v>
       </c>
       <c r="AH50" s="58">
         <v>0.15</v>
@@ -5717,7 +5723,7 @@
         <v>2023</v>
       </c>
       <c r="L51" s="56">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="M51" s="59">
         <f t="shared" si="28"/>
@@ -5729,11 +5735,11 @@
       </c>
       <c r="O51" s="22">
         <f t="shared" ref="O51" si="43">L51*M51</f>
-        <v>148.2546068252226</v>
+        <v>135.85700904192873</v>
       </c>
       <c r="P51" s="22">
         <f t="shared" ref="P51" si="44">SQRT(L51^2*N51^2)</f>
-        <v>14.971296780449956</v>
+        <v>13.719341648983759</v>
       </c>
       <c r="Q51" s="15">
         <f>P51/O51</f>
@@ -5743,11 +5749,11 @@
         <v>2023</v>
       </c>
       <c r="T51" s="44">
-        <v>900</v>
+        <v>1498</v>
       </c>
       <c r="U51" s="44">
         <f t="shared" si="18"/>
-        <v>45</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="V51" s="21">
         <f t="shared" si="21"/>
@@ -5759,11 +5765,11 @@
       </c>
       <c r="X51" s="27">
         <f t="shared" ref="X51" si="45">T51*V51</f>
-        <v>549.66910077472323</v>
+        <v>914.89368106726158</v>
       </c>
       <c r="Y51" s="22">
         <f t="shared" ref="Y51" si="46">SQRT(T51^2*W51^2+V51^2*U51^2-U51^2*W51^2)</f>
-        <v>71.687845645865352</v>
+        <v>119.32043641945144</v>
       </c>
       <c r="Z51" s="15">
         <f t="shared" ref="Z51" si="47">Y51/X51</f>
@@ -5774,23 +5780,23 @@
       </c>
       <c r="AC51" s="22">
         <f t="shared" si="24"/>
-        <v>697.92370759994583</v>
+        <v>1050.7506901091904</v>
       </c>
       <c r="AD51" s="17">
         <f t="shared" si="25"/>
-        <v>73.234465524326239</v>
+        <v>120.10656469406612</v>
       </c>
       <c r="AE51" s="15">
         <f>AD51/AC51</f>
-        <v>0.10493190692170137</v>
+        <v>0.1143054825703565</v>
       </c>
       <c r="AF51" s="52">
-        <f t="shared" ref="AF51" si="48">AVERAGE($AF$42:$AF$45)</f>
+        <f t="shared" ref="AF51:AF52" si="48">AVERAGE($AF$42:$AF$45)</f>
         <v>0.15166255389843397</v>
       </c>
       <c r="AG51" s="14">
         <f>AC51*(1-AF51)</f>
-        <v>592.07481567907416</v>
+        <v>891.39115693668862</v>
       </c>
       <c r="AH51" s="58">
         <v>0.15</v>
@@ -5825,8 +5831,90 @@
       <c r="I52">
         <v>24.6759756018362</v>
       </c>
-      <c r="S52" t="s">
-        <v>34</v>
+      <c r="K52" s="20">
+        <v>2024</v>
+      </c>
+      <c r="L52" s="56">
+        <v>4</v>
+      </c>
+      <c r="M52" s="59">
+        <f t="shared" si="28"/>
+        <v>0.51656657430391151</v>
+      </c>
+      <c r="N52" s="52">
+        <f t="shared" si="19"/>
+        <v>5.2164797144424936E-2</v>
+      </c>
+      <c r="O52" s="22">
+        <f t="shared" ref="O52" si="49">L52*M52</f>
+        <v>2.066266297215646</v>
+      </c>
+      <c r="P52" s="22">
+        <f t="shared" ref="P52" si="50">SQRT(L52^2*N52^2)</f>
+        <v>0.20865918857769974</v>
+      </c>
+      <c r="Q52" s="15">
+        <f>P52/O52</f>
+        <v>0.10098368678755205</v>
+      </c>
+      <c r="S52" s="28">
+        <v>2024</v>
+      </c>
+      <c r="T52" s="44">
+        <v>1180</v>
+      </c>
+      <c r="U52" s="44">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="V52" s="21">
+        <f t="shared" si="21"/>
+        <v>0.61074344530524804</v>
+      </c>
+      <c r="W52" s="52">
+        <f t="shared" si="22"/>
+        <v>7.3659157462274485E-2</v>
+      </c>
+      <c r="X52" s="27">
+        <f t="shared" ref="X52" si="51">T52*V52</f>
+        <v>720.67726546019264</v>
+      </c>
+      <c r="Y52" s="22">
+        <f t="shared" ref="Y52" si="52">SQRT(T52^2*W52^2+V52^2*U52^2-U52^2*W52^2)</f>
+        <v>93.990730957912348</v>
+      </c>
+      <c r="Z52" s="15">
+        <f t="shared" ref="Z52" si="53">Y52/X52</f>
+        <v>0.13042000277044125</v>
+      </c>
+      <c r="AB52" s="20">
+        <v>2024</v>
+      </c>
+      <c r="AC52" s="22">
+        <f>O52+X52</f>
+        <v>722.74353175740828</v>
+      </c>
+      <c r="AD52" s="17">
+        <f t="shared" ref="AD52" si="54">SQRT(SUMSQ(P52,Y52))</f>
+        <v>93.990962569066397</v>
+      </c>
+      <c r="AE52" s="15">
+        <f>AD52/AC52</f>
+        <v>0.13004746281232005</v>
+      </c>
+      <c r="AF52" s="52">
+        <f t="shared" si="48"/>
+        <v>0.15166255389843397</v>
+      </c>
+      <c r="AG52" s="14">
+        <f>AC52*(1-AF52)</f>
+        <v>613.13040191750576</v>
+      </c>
+      <c r="AH52" s="58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
@@ -5844,6 +5932,9 @@
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
+      <c r="S53" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -5884,6 +5975,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C45:D45"/>
@@ -5892,16 +5991,8 @@
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:N4 P4:Q4 S45:S51">
+  <conditionalFormatting sqref="K4:N4 P4:Q4 S45:S52">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
